--- a/xlsx/电视_intext.xlsx
+++ b/xlsx/电视_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t>电视</t>
   </si>
@@ -29,13 +29,13 @@
     <t>电视机</t>
   </si>
   <si>
-    <t>政策_政策_美國_电视</t>
+    <t>政策_政策_美国_电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%BB%A3%E6%92%AD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>電視廣播有限公司</t>
+    <t>电视广播有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%92%AD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AF%E8%A6%BA</t>
   </si>
   <si>
-    <t>錯覺</t>
+    <t>错觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E9%AB%98%E7%89%B9%E5%88%97%E6%9C%AC%C2%B7%E5%B0%BC%E6%99%AE%E5%8F%AF%E5%A4%AB</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E6%9D%9F</t>
   </si>
   <si>
-    <t>電子束</t>
+    <t>电子束</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%BE%E7%A4%BA%E5%99%A8</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%91%9E%E6%96%AF%C2%B7%E7%BE%85%E6%98%9F</t>
   </si>
   <si>
-    <t>波瑞斯·羅星</t>
+    <t>波瑞斯·罗星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E5%B0%94%C2%B7%E4%BD%90%E5%88%A9%E9%87%91</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%BE%85%C2%B7%E6%B3%95%E6%81%A9%E6%96%AF%E6%B2%83%E6%96%AF</t>
   </si>
   <si>
-    <t>費羅·法恩斯沃斯</t>
+    <t>费罗·法恩斯沃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%A9</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>貝爾德</t>
+    <t>贝尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%BE%B7%E6%8B%89%E5%AE%AE</t>
   </si>
   <si>
-    <t>亞歷山德拉宮</t>
+    <t>亚历山德拉宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>維多利亞大廈</t>
+    <t>维多利亚大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>數位電視</t>
+    <t>数位电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E5%8C%96</t>
   </si>
   <si>
-    <t>數位化</t>
+    <t>数位化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E5%B8%A6</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%84%E5%BD%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>錄影機</t>
+    <t>录影机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%95%E5%BD%B1%E5%B8%A6</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%99%B6%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>液晶電視</t>
+    <t>液晶电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E9%9B%A2%E5%AD%90%E9%A1%AF%E7%A4%BA%E5%B1%8F</t>
   </si>
   <si>
-    <t>等離子顯示屏</t>
+    <t>等离子显示屏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LED%E7%94%B5%E8%A7%86</t>
@@ -491,9 +491,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>電視台</t>
+    <t>电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -599,39 +596,33 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BC%BF%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>電漿電視</t>
+    <t>电浆电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E6%93%AC%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>模擬電視</t>
+    <t>模拟电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>數碼電視</t>
+    <t>数码电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9D%A2%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>地面電視</t>
+    <t>地面电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>衛星電視</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%9C%BA%E7%94%B5%E8%A7%86</t>
   </si>
   <si>
@@ -641,25 +632,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>網絡電視</t>
+    <t>网络电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%99%BD%E9%9B%BB%E8%A6%96%E6%A9%9F</t>
   </si>
   <si>
-    <t>黑白電視機</t>
+    <t>黑白电视机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%89%B2%E9%9B%BB%E8%A6%96%E6%A9%9F</t>
   </si>
   <si>
-    <t>彩色電視機</t>
+    <t>彩色电视机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%99%B6%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>液晶顯示器</t>
+    <t>液晶显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%A6%BB%E5%AD%90%E6%98%BE%E7%A4%BA%E5%99%A8</t>
@@ -725,31 +716,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E8%A6%96%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>香港電視廣播</t>
+    <t>香港电视广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E9%9B%BB%E8%A6%96%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>澳門電視廣播</t>
+    <t>澳门电视广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%9B%BB%E8%A6%96%E5%8F%B2</t>
   </si>
   <si>
-    <t>台灣電視史</t>
+    <t>台湾电视史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E8%A7%86%E5%88%86%E7%BA%A7%E5%88%B6%E5%BA%A6</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E9%9B%BB%E8%A6%96%E9%A0%BB%E9%81%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>加拿大電視頻道列表</t>
+    <t>加拿大电视频道列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -779,13 +770,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%99%E6%8E%A7%E5%99%A8</t>
   </si>
   <si>
-    <t>遙控器</t>
+    <t>遥控器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E9%81%B8%E8%A6%96%E8%A8%8A</t>
   </si>
   <si>
-    <t>隨選視訊</t>
+    <t>随选视讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DirecTV</t>
@@ -803,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -815,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
 </sst>
 </file>
@@ -3535,7 +3526,7 @@
         <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3561,10 +3552,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3590,10 +3581,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3619,10 +3610,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -3648,10 +3639,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3677,10 +3668,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3706,10 +3697,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -3735,10 +3726,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3764,10 +3755,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>7</v>
@@ -3793,10 +3784,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3822,10 +3813,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>3</v>
@@ -3851,10 +3842,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3880,10 +3871,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3909,10 +3900,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3938,10 +3929,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -3967,10 +3958,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3996,10 +3987,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4025,10 +4016,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4054,10 +4045,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4083,10 +4074,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4112,10 +4103,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4141,10 +4132,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4170,10 +4161,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4199,10 +4190,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4228,10 +4219,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4257,10 +4248,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4286,10 +4277,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4315,10 +4306,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4373,10 +4364,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4402,10 +4393,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4431,10 +4422,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4460,10 +4451,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4489,10 +4480,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4518,10 +4509,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4547,10 +4538,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>14</v>
@@ -4576,10 +4567,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4605,10 +4596,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4634,10 +4625,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4663,10 +4654,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -4692,10 +4683,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4721,10 +4712,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -4750,10 +4741,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4779,10 +4770,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -4808,10 +4799,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4837,10 +4828,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4866,10 +4857,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4895,10 +4886,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4924,10 +4915,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -4953,10 +4944,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4982,10 +4973,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5011,10 +5002,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5040,10 +5031,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5069,10 +5060,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5098,10 +5089,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5127,10 +5118,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>

--- a/xlsx/电视_intext.xlsx
+++ b/xlsx/电视_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>电视</t>
   </si>
@@ -29,7 +29,7 @@
     <t>电视机</t>
   </si>
   <si>
-    <t>政策_政策_美國_电视</t>
+    <t>体育运动_体育运动_大众媒体_电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%BB%A3%E6%92%AD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -212,12 +212,6 @@
     <t>美国专利及商标局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%9C%88</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
   </si>
   <si>
@@ -536,10 +530,10 @@
     <t>软实力</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>媒体</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AA%92%E9%AB%94</t>
+  </si>
+  <si>
+    <t>傳播媒體</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
@@ -584,10 +578,10 @@
     <t>南京</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>中央大学</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%AD%B8_(%E5%8D%97%E4%BA%AC)</t>
+  </si>
+  <si>
+    <t>國立中央大學 (南京)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%99%B5%E5%A4%A7%E5%AD%A6</t>
@@ -1164,7 +1158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2175,7 +2169,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -2204,7 +2198,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -2233,7 +2227,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -2256,10 +2250,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2285,10 +2279,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2320,7 +2314,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -2349,7 +2343,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -2378,7 +2372,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -2436,7 +2430,7 @@
         <v>82</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -2465,7 +2459,7 @@
         <v>84</v>
       </c>
       <c r="G45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -2494,7 +2488,7 @@
         <v>86</v>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -2552,7 +2546,7 @@
         <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -2581,7 +2575,7 @@
         <v>92</v>
       </c>
       <c r="G49" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -2639,7 +2633,7 @@
         <v>96</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -2668,7 +2662,7 @@
         <v>98</v>
       </c>
       <c r="G52" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -2813,7 +2807,7 @@
         <v>108</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -2842,7 +2836,7 @@
         <v>110</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -2871,7 +2865,7 @@
         <v>112</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -2900,7 +2894,7 @@
         <v>114</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -2929,7 +2923,7 @@
         <v>116</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -2958,7 +2952,7 @@
         <v>118</v>
       </c>
       <c r="G62" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -2987,7 +2981,7 @@
         <v>120</v>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3016,7 +3010,7 @@
         <v>122</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -3045,7 +3039,7 @@
         <v>124</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -3306,7 +3300,7 @@
         <v>142</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -3335,7 +3329,7 @@
         <v>144</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3364,7 +3358,7 @@
         <v>146</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -3393,7 +3387,7 @@
         <v>148</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -3422,7 +3416,7 @@
         <v>150</v>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -3451,7 +3445,7 @@
         <v>152</v>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -3509,7 +3503,7 @@
         <v>156</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -3538,7 +3532,7 @@
         <v>158</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -3567,7 +3561,7 @@
         <v>160</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -3596,7 +3590,7 @@
         <v>162</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -3625,7 +3619,7 @@
         <v>164</v>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -3654,7 +3648,7 @@
         <v>166</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -3683,7 +3677,7 @@
         <v>168</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -3712,7 +3706,7 @@
         <v>170</v>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -3741,7 +3735,7 @@
         <v>172</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -3770,7 +3764,7 @@
         <v>174</v>
       </c>
       <c r="G90" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -3799,7 +3793,7 @@
         <v>176</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -3828,7 +3822,7 @@
         <v>178</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -3915,7 +3909,7 @@
         <v>184</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -3944,7 +3938,7 @@
         <v>186</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4205,7 +4199,7 @@
         <v>204</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -4234,7 +4228,7 @@
         <v>206</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4263,7 +4257,7 @@
         <v>208</v>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -4315,10 +4309,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4344,10 +4338,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4524,7 +4518,7 @@
         <v>224</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4553,7 +4547,7 @@
         <v>226</v>
       </c>
       <c r="G117" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -4640,7 +4634,7 @@
         <v>232</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -4669,7 +4663,7 @@
         <v>234</v>
       </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -4698,7 +4692,7 @@
         <v>236</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -4727,7 +4721,7 @@
         <v>238</v>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -4756,7 +4750,7 @@
         <v>240</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -4785,7 +4779,7 @@
         <v>242</v>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -4901,7 +4895,7 @@
         <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -4930,7 +4924,7 @@
         <v>252</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5046,7 +5040,7 @@
         <v>260</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -5075,7 +5069,7 @@
         <v>262</v>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -5110,35 +5104,6 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>136</v>
-      </c>
-      <c r="E137" t="s">
-        <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1</v>
-      </c>
-      <c r="H137" t="s">
-        <v>4</v>
-      </c>
-      <c r="I137" t="n">
         <v>3</v>
       </c>
     </row>
